--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itga2.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N2">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P2">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q2">
-        <v>51.07435673078567</v>
+        <v>1.434114100776</v>
       </c>
       <c r="R2">
-        <v>459.669210577071</v>
+        <v>12.907026906984</v>
       </c>
       <c r="S2">
-        <v>0.03229853071855151</v>
+        <v>0.001598186268127886</v>
       </c>
       <c r="T2">
-        <v>0.03229853071855152</v>
+        <v>0.001598186268127886</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.261295</v>
       </c>
       <c r="O3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P3">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q3">
-        <v>29.39394928539056</v>
+        <v>6.783611006619999</v>
       </c>
       <c r="R3">
-        <v>264.545543568515</v>
+        <v>61.05249905957999</v>
       </c>
       <c r="S3">
-        <v>0.01858821989551327</v>
+        <v>0.00755970110971989</v>
       </c>
       <c r="T3">
-        <v>0.01858821989551327</v>
+        <v>0.007559701109719891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N4">
         <v>3.522173</v>
       </c>
       <c r="O4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P4">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q4">
-        <v>31.74523449622678</v>
+        <v>7.326246638227998</v>
       </c>
       <c r="R4">
-        <v>285.707110466041</v>
+        <v>65.93621974405198</v>
       </c>
       <c r="S4">
-        <v>0.0200751315762725</v>
+        <v>0.008164417857545984</v>
       </c>
       <c r="T4">
-        <v>0.02007513157627251</v>
+        <v>0.008164417857545988</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N5">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P5">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q5">
-        <v>652.747967971259</v>
+        <v>79.41880231893799</v>
       </c>
       <c r="R5">
-        <v>5874.731711741331</v>
+        <v>714.7692208704419</v>
       </c>
       <c r="S5">
-        <v>0.4127864087671198</v>
+        <v>0.08850484018573561</v>
       </c>
       <c r="T5">
-        <v>0.4127864087671199</v>
+        <v>0.08850484018573564</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.261295</v>
       </c>
       <c r="O6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P6">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q6">
-        <v>375.6648520866017</v>
+        <v>375.6648520866016</v>
       </c>
       <c r="R6">
         <v>3380.983668779415</v>
       </c>
       <c r="S6">
-        <v>0.2375638880574614</v>
+        <v>0.4186434034071856</v>
       </c>
       <c r="T6">
-        <v>0.2375638880574614</v>
+        <v>0.4186434034071857</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N7">
         <v>3.522173</v>
       </c>
       <c r="O7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P7">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q7">
-        <v>405.7150914187223</v>
+        <v>405.7150914187222</v>
       </c>
       <c r="R7">
-        <v>3651.435822768501</v>
+        <v>3651.4358227685</v>
       </c>
       <c r="S7">
-        <v>0.2565671343104542</v>
+        <v>0.4521315894786877</v>
       </c>
       <c r="T7">
-        <v>0.2565671343104542</v>
+        <v>0.4521315894786879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>1.888921</v>
+        <v>0.229822</v>
       </c>
       <c r="N8">
-        <v>5.666763</v>
+        <v>0.689466</v>
       </c>
       <c r="O8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862418</v>
       </c>
       <c r="P8">
-        <v>0.4551532417350329</v>
+        <v>0.09226175421862419</v>
       </c>
       <c r="Q8">
-        <v>15.92122147097867</v>
+        <v>1.937109577850666</v>
       </c>
       <c r="R8">
-        <v>143.290993238808</v>
+        <v>17.433986200656</v>
       </c>
       <c r="S8">
-        <v>0.01006830224936161</v>
+        <v>0.002158727764760676</v>
       </c>
       <c r="T8">
-        <v>0.01006830224936161</v>
+        <v>0.002158727764760677</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>3.261295</v>
       </c>
       <c r="O9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="P9">
-        <v>0.2619465454094788</v>
+        <v>0.4364142651333466</v>
       </c>
       <c r="Q9">
-        <v>9.162867756635558</v>
+        <v>9.162867756635555</v>
       </c>
       <c r="R9">
-        <v>82.46580980972003</v>
+        <v>82.46580980971999</v>
       </c>
       <c r="S9">
-        <v>0.005794437456504139</v>
+        <v>0.01021116061644108</v>
       </c>
       <c r="T9">
-        <v>0.00579443745650414</v>
+        <v>0.01021116061644109</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.174057666666667</v>
+        <v>1.174057666666666</v>
       </c>
       <c r="N10">
         <v>3.522173</v>
       </c>
       <c r="O10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480292</v>
       </c>
       <c r="P10">
-        <v>0.2829002128554884</v>
+        <v>0.4713239806480293</v>
       </c>
       <c r="Q10">
-        <v>9.895825251929779</v>
+        <v>9.895825251929775</v>
       </c>
       <c r="R10">
-        <v>89.06242726736801</v>
+        <v>89.06242726736799</v>
       </c>
       <c r="S10">
-        <v>0.006257946968761657</v>
+        <v>0.01102797331179551</v>
       </c>
       <c r="T10">
-        <v>0.006257946968761659</v>
+        <v>0.01102797331179551</v>
       </c>
     </row>
   </sheetData>
